--- a/biology/Histoire de la zoologie et de la botanique/Gladwyn_Kingsley_Noble/Gladwyn_Kingsley_Noble.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gladwyn_Kingsley_Noble/Gladwyn_Kingsley_Noble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladwyn Kingsley Noble est un zoologiste américain, né le 20 septembre 1894 à Yonkers, New York et mort le 9 décembre 1940 à Englewood, New Jersey.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est le cofondateur de la maison d’édition Barnes &amp; Noble de New York. Ses premiers intérêts le portent à étudier les oiseaux. Durant ses études à Harvard, où il obtient son Bachelor of Arts en 1917 et son Master of Arts en 1918, il devient le protégé et l’élève de Thomas Barbour (1884-1946). Durant la Première Guerre mondiale, il entre à l’école des officiers et s’engage dans la Navy en 1918 ; il travaille alors dans le service du code.
 Après la guerre, Noble entre à l’université Columbia et fréquente William King Gregory (1876-1970) et ses étudiants comme Charles Lewis Camp (1893-1975) et Alfred Sherwood Romer (1894-1973). Il reçoit son doctorat en 1922 avec une thèse où il poursuit les travaux en ostéologie d’Edward Drinker Cope (1840-1897) et en taxinomie de George Edward Nicholls. Il est engagé par Mary Cynthia Dickerson (1866-1923), en 1917, comme conservateur assistant au sein de l’American Museum of Natural History. Après la mort de Miss Dickerson, il la remplace comme conservateur en herpétologie.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The nature of the beast, a popular account of animal psychology from the point of view of a naturalist, Doubleday &amp; Company, Garden City NY (1946) avec sa femme Ruth Crosby Noble.
 The Biology of the Amphibia, Dover Publications, New York (1954).</t>
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
         </is>
